--- a/Resources/Parameters.xlsx
+++ b/Resources/Parameters.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="17235" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12810" windowHeight="5760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TestCase Name</t>
   </si>
@@ -31,6 +32,12 @@
   </si>
   <si>
     <t>sd</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Result</t>
   </si>
 </sst>
 </file>
@@ -369,34 +376,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
